--- a/Resources/crowdfunding.xlsx
+++ b/Resources/crowdfunding.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tberton/Desktop/nflx_data_2_Fall_22/02-Assignments/03-Crowdfunding_ETL/Solution/Resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fff8c0d1ca7b35a3/Desktop/Bootcamp docs/Crowdfunding_ETL/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D07F55-B245-7C45-835B-956FDE250297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{05D07F55-B245-7C45-835B-956FDE250297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{029D4F67-463C-4BEC-A9D2-41B8222E8A98}"/>
   <bookViews>
-    <workbookView xWindow="4220" yWindow="-18300" windowWidth="28560" windowHeight="14600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="crowdfunding_info" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">crowdfunding_info!$A$1:$O$1001</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -6145,12 +6148,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6169,9 +6171,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6209,9 +6211,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6244,26 +6246,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6296,26 +6281,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6491,22 +6459,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A598" workbookViewId="0">
-      <selection activeCell="D987" sqref="D987"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.83203125"/>
+    <col min="2" max="2" width="10.77734375"/>
     <col min="3" max="3" width="27.33203125" customWidth="1"/>
     <col min="4" max="4" width="38" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" customWidth="1"/>
-    <col min="11" max="12" width="10.83203125"/>
-    <col min="15" max="15" width="21.5" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" customWidth="1"/>
+    <col min="11" max="12" width="10.77734375"/>
+    <col min="15" max="15" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6553,7 +6521,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>147</v>
       </c>
@@ -6600,7 +6568,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1621</v>
       </c>
@@ -6647,7 +6615,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1812</v>
       </c>
@@ -6694,7 +6662,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2156</v>
       </c>
@@ -6741,7 +6709,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1365</v>
       </c>
@@ -6788,7 +6756,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2057</v>
       </c>
@@ -6835,7 +6803,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1894</v>
       </c>
@@ -6882,7 +6850,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2669</v>
       </c>
@@ -6929,7 +6897,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1114</v>
       </c>
@@ -6976,7 +6944,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>970</v>
       </c>
@@ -7023,7 +6991,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2340</v>
       </c>
@@ -7070,7 +7038,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>601</v>
       </c>
@@ -7117,7 +7085,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1950</v>
       </c>
@@ -7164,7 +7132,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>671</v>
       </c>
@@ -7211,7 +7179,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1683</v>
       </c>
@@ -7258,7 +7226,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>505</v>
       </c>
@@ -7305,7 +7273,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1245</v>
       </c>
@@ -7352,7 +7320,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2550</v>
       </c>
@@ -7399,7 +7367,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>875</v>
       </c>
@@ -7446,7 +7414,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2283</v>
       </c>
@@ -7493,7 +7461,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>118</v>
       </c>
@@ -7540,7 +7508,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>711</v>
       </c>
@@ -7587,7 +7555,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1747</v>
       </c>
@@ -7634,7 +7602,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1825</v>
       </c>
@@ -7681,7 +7649,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1019</v>
       </c>
@@ -7728,7 +7696,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>821</v>
       </c>
@@ -7775,7 +7743,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2653</v>
       </c>
@@ -7822,7 +7790,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2502</v>
       </c>
@@ -7869,7 +7837,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>325</v>
       </c>
@@ -7916,7 +7884,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1345</v>
       </c>
@@ -7963,7 +7931,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2303</v>
       </c>
@@ -8010,7 +7978,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2224</v>
       </c>
@@ -8057,7 +8025,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1173</v>
       </c>
@@ -8104,7 +8072,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>210</v>
       </c>
@@ -8151,7 +8119,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1546</v>
       </c>
@@ -8198,7 +8166,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2871</v>
       </c>
@@ -8245,7 +8213,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2034</v>
       </c>
@@ -8292,7 +8260,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2677</v>
       </c>
@@ -8339,7 +8307,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1865</v>
       </c>
@@ -8386,7 +8354,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>170</v>
       </c>
@@ -8433,7 +8401,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>462</v>
       </c>
@@ -8480,7 +8448,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>3122</v>
       </c>
@@ -8527,7 +8495,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1175</v>
       </c>
@@ -8574,7 +8542,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2301</v>
       </c>
@@ -8621,7 +8589,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>91</v>
       </c>
@@ -8668,7 +8636,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>87</v>
       </c>
@@ -8715,7 +8683,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1482</v>
       </c>
@@ -8762,7 +8730,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1711</v>
       </c>
@@ -8809,7 +8777,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2294</v>
       </c>
@@ -8856,7 +8824,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2389</v>
       </c>
@@ -8903,7 +8871,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>378</v>
       </c>
@@ -8950,7 +8918,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1213</v>
       </c>
@@ -8997,7 +8965,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>29</v>
       </c>
@@ -9044,7 +9012,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2309</v>
       </c>
@@ -9091,7 +9059,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2101</v>
       </c>
@@ -9138,7 +9106,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1057</v>
       </c>
@@ -9185,7 +9153,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>2655</v>
       </c>
@@ -9232,7 +9200,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>202</v>
       </c>
@@ -9279,7 +9247,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2025</v>
       </c>
@@ -9326,7 +9294,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2395</v>
       </c>
@@ -9373,7 +9341,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1418</v>
       </c>
@@ -9420,7 +9388,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1905</v>
       </c>
@@ -9467,7 +9435,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1969</v>
       </c>
@@ -9514,7 +9482,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>2430</v>
       </c>
@@ -9561,7 +9529,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1291</v>
       </c>
@@ -9608,7 +9576,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1934</v>
       </c>
@@ -9655,7 +9623,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1225</v>
       </c>
@@ -9702,7 +9670,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1363</v>
       </c>
@@ -9749,7 +9717,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>963</v>
       </c>
@@ -9796,7 +9764,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1486</v>
       </c>
@@ -9843,7 +9811,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>676</v>
       </c>
@@ -9890,7 +9858,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>2137</v>
       </c>
@@ -9937,7 +9905,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>2656</v>
       </c>
@@ -9984,7 +9952,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1556</v>
       </c>
@@ -10031,7 +9999,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>747</v>
       </c>
@@ -10078,7 +10046,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>60</v>
       </c>
@@ -10125,7 +10093,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>2459</v>
       </c>
@@ -10172,7 +10140,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1903</v>
       </c>
@@ -10219,7 +10187,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>2003</v>
       </c>
@@ -10266,7 +10234,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>2885</v>
       </c>
@@ -10313,7 +10281,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>2067</v>
       </c>
@@ -10360,7 +10328,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1610</v>
       </c>
@@ -10407,7 +10375,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>2909</v>
       </c>
@@ -10454,7 +10422,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1239</v>
       </c>
@@ -10501,7 +10469,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>2480</v>
       </c>
@@ -10548,7 +10516,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>2181</v>
       </c>
@@ -10595,7 +10563,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>2030</v>
       </c>
@@ -10642,7 +10610,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>2311</v>
       </c>
@@ -10689,7 +10657,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>2821</v>
       </c>
@@ -10736,7 +10704,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>2468</v>
       </c>
@@ -10783,7 +10751,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>656</v>
       </c>
@@ -10830,7 +10798,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>2791</v>
       </c>
@@ -10877,7 +10845,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1527</v>
       </c>
@@ -10924,7 +10892,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1891</v>
       </c>
@@ -10971,7 +10939,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>580</v>
       </c>
@@ -11018,7 +10986,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>682</v>
       </c>
@@ -11065,7 +11033,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>3097</v>
       </c>
@@ -11112,7 +11080,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>873</v>
       </c>
@@ -11159,7 +11127,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1668</v>
       </c>
@@ -11206,7 +11174,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>3076</v>
       </c>
@@ -11253,7 +11221,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>3146</v>
       </c>
@@ -11300,7 +11268,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>253</v>
       </c>
@@ -11347,7 +11315,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>3088</v>
       </c>
@@ -11394,7 +11362,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>393</v>
       </c>
@@ -11441,7 +11409,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>2912</v>
       </c>
@@ -11488,7 +11456,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>478</v>
       </c>
@@ -11535,7 +11503,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1061</v>
       </c>
@@ -11582,7 +11550,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>2957</v>
       </c>
@@ -11629,7 +11597,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>2015</v>
       </c>
@@ -11676,7 +11644,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1179</v>
       </c>
@@ -11723,7 +11691,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>2568</v>
       </c>
@@ -11770,7 +11738,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>2869</v>
       </c>
@@ -11817,7 +11785,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>718</v>
       </c>
@@ -11864,7 +11832,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1211</v>
       </c>
@@ -11911,7 +11879,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>2431</v>
       </c>
@@ -11958,7 +11926,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>468</v>
       </c>
@@ -12005,7 +11973,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1862</v>
       </c>
@@ -12052,7 +12020,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>2300</v>
       </c>
@@ -12099,7 +12067,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>449</v>
       </c>
@@ -12146,7 +12114,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>283</v>
       </c>
@@ -12193,7 +12161,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>2484</v>
       </c>
@@ -12240,7 +12208,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1490</v>
       </c>
@@ -12287,7 +12255,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>186</v>
       </c>
@@ -12334,7 +12302,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>2999</v>
       </c>
@@ -12381,7 +12349,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>2819</v>
       </c>
@@ -12428,7 +12396,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>2105</v>
       </c>
@@ -12475,7 +12443,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1324</v>
       </c>
@@ -12522,7 +12490,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1952</v>
       </c>
@@ -12569,7 +12537,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>2404</v>
       </c>
@@ -12616,7 +12584,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>990</v>
       </c>
@@ -12663,7 +12631,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>1459</v>
       </c>
@@ -12710,7 +12678,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1106</v>
       </c>
@@ -12757,7 +12725,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1488</v>
       </c>
@@ -12804,7 +12772,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>2107</v>
       </c>
@@ -12851,7 +12819,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>2660</v>
       </c>
@@ -12898,7 +12866,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>2647</v>
       </c>
@@ -12945,7 +12913,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>565</v>
       </c>
@@ -12992,7 +12960,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>2713</v>
       </c>
@@ -13039,7 +13007,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>558</v>
       </c>
@@ -13086,7 +13054,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>698</v>
       </c>
@@ -13133,7 +13101,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>321</v>
       </c>
@@ -13180,7 +13148,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1302</v>
       </c>
@@ -13227,7 +13195,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>1410</v>
       </c>
@@ -13274,7 +13242,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>2465</v>
       </c>
@@ -13321,7 +13289,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>377</v>
       </c>
@@ -13368,7 +13336,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1882</v>
       </c>
@@ -13415,7 +13383,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>822</v>
       </c>
@@ -13462,7 +13430,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>2730</v>
       </c>
@@ -13509,7 +13477,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>2198</v>
       </c>
@@ -13556,7 +13524,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>2757</v>
       </c>
@@ -13603,7 +13571,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>2588</v>
       </c>
@@ -13650,7 +13618,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>1090</v>
       </c>
@@ -13697,7 +13665,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>64</v>
       </c>
@@ -13744,7 +13712,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>2171</v>
       </c>
@@ -13791,7 +13759,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>625</v>
       </c>
@@ -13838,7 +13806,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>1065</v>
       </c>
@@ -13885,7 +13853,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>174</v>
       </c>
@@ -13932,7 +13900,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1344</v>
       </c>
@@ -13979,7 +13947,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>2824</v>
       </c>
@@ -14026,7 +13994,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>940</v>
       </c>
@@ -14073,7 +14041,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>3024</v>
       </c>
@@ -14120,7 +14088,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>2164</v>
       </c>
@@ -14167,7 +14135,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>2427</v>
       </c>
@@ -14214,7 +14182,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1548</v>
       </c>
@@ -14261,7 +14229,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>2657</v>
       </c>
@@ -14308,7 +14276,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>2916</v>
       </c>
@@ -14355,7 +14323,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1348</v>
       </c>
@@ -14402,7 +14370,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>557</v>
       </c>
@@ -14449,7 +14417,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>2915</v>
       </c>
@@ -14496,7 +14464,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>320</v>
       </c>
@@ -14543,7 +14511,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>1458</v>
       </c>
@@ -14590,7 +14558,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>379</v>
       </c>
@@ -14637,7 +14605,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1879</v>
       </c>
@@ -14684,7 +14652,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>597</v>
       </c>
@@ -14731,7 +14699,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1130</v>
       </c>
@@ -14778,7 +14746,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>2354</v>
       </c>
@@ -14825,7 +14793,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1358</v>
       </c>
@@ -14872,7 +14840,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>188</v>
       </c>
@@ -14919,7 +14887,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>2228</v>
       </c>
@@ -14966,7 +14934,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1743</v>
       </c>
@@ -15013,7 +14981,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>2563</v>
       </c>
@@ -15060,7 +15028,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>2424</v>
       </c>
@@ -15107,7 +15075,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>2369</v>
       </c>
@@ -15154,7 +15122,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>1134</v>
       </c>
@@ -15201,7 +15169,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>2241</v>
       </c>
@@ -15248,7 +15216,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>2745</v>
       </c>
@@ -15295,7 +15263,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>1055</v>
       </c>
@@ -15342,7 +15310,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1215</v>
       </c>
@@ -15389,7 +15357,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>2036</v>
       </c>
@@ -15436,7 +15404,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>1191</v>
       </c>
@@ -15483,7 +15451,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>879</v>
       </c>
@@ -15530,7 +15498,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>3062</v>
       </c>
@@ -15577,7 +15545,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>611</v>
       </c>
@@ -15624,7 +15592,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>3195</v>
       </c>
@@ -15671,7 +15639,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>1221</v>
       </c>
@@ -15718,7 +15686,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>2536</v>
       </c>
@@ -15765,7 +15733,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1834</v>
       </c>
@@ -15812,7 +15780,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>593</v>
       </c>
@@ -15859,7 +15827,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>3039</v>
       </c>
@@ -15906,7 +15874,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>777</v>
       </c>
@@ -15953,7 +15921,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>835</v>
       </c>
@@ -16000,7 +15968,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>797</v>
       </c>
@@ -16047,7 +16015,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>509</v>
       </c>
@@ -16094,7 +16062,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>2286</v>
       </c>
@@ -16141,7 +16109,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>2110</v>
       </c>
@@ -16188,7 +16156,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>1038</v>
       </c>
@@ -16235,7 +16203,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>2893</v>
       </c>
@@ -16282,7 +16250,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>805</v>
       </c>
@@ -16329,7 +16297,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>225</v>
       </c>
@@ -16376,7 +16344,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>968</v>
       </c>
@@ -16423,7 +16391,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>1369</v>
       </c>
@@ -16470,7 +16438,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1417</v>
       </c>
@@ -16517,7 +16485,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>3011</v>
       </c>
@@ -16564,7 +16532,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>2691</v>
       </c>
@@ -16611,7 +16579,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>2159</v>
       </c>
@@ -16658,7 +16626,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>2515</v>
       </c>
@@ -16705,7 +16673,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>544</v>
       </c>
@@ -16752,7 +16720,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>3030</v>
       </c>
@@ -16799,7 +16767,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>817</v>
       </c>
@@ -16846,7 +16814,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>1400</v>
       </c>
@@ -16893,7 +16861,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>657</v>
       </c>
@@ -16940,7 +16908,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>966</v>
       </c>
@@ -16987,7 +16955,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>1558</v>
       </c>
@@ -17034,7 +17002,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>1379</v>
       </c>
@@ -17081,7 +17049,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>286</v>
       </c>
@@ -17128,7 +17096,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>894</v>
       </c>
@@ -17175,7 +17143,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>709</v>
       </c>
@@ -17222,7 +17190,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>1599</v>
       </c>
@@ -17269,7 +17237,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>905</v>
       </c>
@@ -17316,7 +17284,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>146</v>
       </c>
@@ -17363,7 +17331,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>1632</v>
       </c>
@@ -17410,7 +17378,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>537</v>
       </c>
@@ -17457,7 +17425,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>1289</v>
       </c>
@@ -17504,7 +17472,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>2712</v>
       </c>
@@ -17551,7 +17519,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>1980</v>
       </c>
@@ -17598,7 +17566,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>296</v>
       </c>
@@ -17645,7 +17613,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>1760</v>
       </c>
@@ -17692,7 +17660,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>2435</v>
       </c>
@@ -17739,7 +17707,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>2343</v>
       </c>
@@ -17786,7 +17754,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>2556</v>
       </c>
@@ -17833,7 +17801,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>2495</v>
       </c>
@@ -17880,7 +17848,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>2497</v>
       </c>
@@ -17927,7 +17895,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>1955</v>
       </c>
@@ -17974,7 +17942,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>1129</v>
       </c>
@@ -18021,7 +17989,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>636</v>
       </c>
@@ -18068,7 +18036,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>434</v>
       </c>
@@ -18115,7 +18083,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>1231</v>
       </c>
@@ -18162,7 +18130,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>3162</v>
       </c>
@@ -18209,7 +18177,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1717</v>
       </c>
@@ -18256,7 +18224,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>211</v>
       </c>
@@ -18303,7 +18271,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>2635</v>
       </c>
@@ -18350,7 +18318,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>1854</v>
       </c>
@@ -18397,7 +18365,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>436</v>
       </c>
@@ -18444,7 +18412,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>2965</v>
       </c>
@@ -18491,7 +18459,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>1034</v>
       </c>
@@ -18538,7 +18506,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>614</v>
       </c>
@@ -18585,7 +18553,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>1792</v>
       </c>
@@ -18632,7 +18600,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>121</v>
       </c>
@@ -18679,7 +18647,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>2936</v>
       </c>
@@ -18726,7 +18694,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>2081</v>
       </c>
@@ -18773,7 +18741,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>1204</v>
       </c>
@@ -18820,7 +18788,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>669</v>
       </c>
@@ -18867,7 +18835,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>735</v>
       </c>
@@ -18914,7 +18882,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>933</v>
       </c>
@@ -18961,7 +18929,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>3055</v>
       </c>
@@ -19008,7 +18976,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>270</v>
       </c>
@@ -19055,7 +19023,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>647</v>
       </c>
@@ -19102,7 +19070,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>1219</v>
       </c>
@@ -19149,7 +19117,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>1257</v>
       </c>
@@ -19196,7 +19164,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>2162</v>
       </c>
@@ -19243,7 +19211,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>2274</v>
       </c>
@@ -19290,7 +19258,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>2284</v>
       </c>
@@ -19337,7 +19305,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>407</v>
       </c>
@@ -19384,7 +19352,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>2440</v>
       </c>
@@ -19431,7 +19399,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>2476</v>
       </c>
@@ -19478,7 +19446,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>41</v>
       </c>
@@ -19525,7 +19493,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>890</v>
       </c>
@@ -19572,7 +19540,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>2743</v>
       </c>
@@ -19619,7 +19587,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>266</v>
       </c>
@@ -19666,7 +19634,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>3113</v>
       </c>
@@ -19713,7 +19681,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>1909</v>
       </c>
@@ -19760,7 +19728,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>962</v>
       </c>
@@ -19807,7 +19775,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>213</v>
       </c>
@@ -19854,7 +19822,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>2741</v>
       </c>
@@ -19901,7 +19869,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>2589</v>
       </c>
@@ -19948,7 +19916,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>1238</v>
       </c>
@@ -19995,7 +19963,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>164</v>
       </c>
@@ -20042,7 +20010,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>2685</v>
       </c>
@@ -20089,7 +20057,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>2836</v>
       </c>
@@ -20136,7 +20104,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>2062</v>
       </c>
@@ -20183,7 +20151,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>3111</v>
       </c>
@@ -20230,7 +20198,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>1414</v>
       </c>
@@ -20277,7 +20245,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>2765</v>
       </c>
@@ -20324,7 +20292,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>939</v>
       </c>
@@ -20371,7 +20339,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>390</v>
       </c>
@@ -20418,7 +20386,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>2851</v>
       </c>
@@ -20465,7 +20433,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>1607</v>
       </c>
@@ -20512,7 +20480,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>3201</v>
       </c>
@@ -20559,7 +20527,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>641</v>
       </c>
@@ -20606,7 +20574,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>524</v>
       </c>
@@ -20653,7 +20621,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>2423</v>
       </c>
@@ -20700,7 +20668,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>1532</v>
       </c>
@@ -20747,7 +20715,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>1748</v>
       </c>
@@ -20794,7 +20762,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>3168</v>
       </c>
@@ -20841,7 +20809,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>1077</v>
       </c>
@@ -20888,7 +20856,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>3114</v>
       </c>
@@ -20935,7 +20903,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>2547</v>
       </c>
@@ -20982,7 +20950,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>2065</v>
       </c>
@@ -21029,7 +20997,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>1143</v>
       </c>
@@ -21076,7 +21044,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>2545</v>
       </c>
@@ -21123,7 +21091,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>1315</v>
       </c>
@@ -21170,7 +21138,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>2219</v>
       </c>
@@ -21217,7 +21185,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>854</v>
       </c>
@@ -21264,7 +21232,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>336</v>
       </c>
@@ -21311,7 +21279,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>3014</v>
       </c>
@@ -21358,7 +21326,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>326</v>
       </c>
@@ -21405,7 +21373,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>2991</v>
       </c>
@@ -21452,7 +21420,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>1359</v>
       </c>
@@ -21499,7 +21467,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>341</v>
       </c>
@@ -21546,7 +21514,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>2365</v>
       </c>
@@ -21593,7 +21561,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>358</v>
       </c>
@@ -21640,7 +21608,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>583</v>
       </c>
@@ -21687,7 +21655,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>1373</v>
       </c>
@@ -21734,7 +21702,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>2665</v>
       </c>
@@ -21781,7 +21749,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>2500</v>
       </c>
@@ -21828,7 +21796,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>921</v>
       </c>
@@ -21875,7 +21843,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>135</v>
       </c>
@@ -21922,7 +21890,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>2413</v>
       </c>
@@ -21969,7 +21937,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>3004</v>
       </c>
@@ -22016,7 +21984,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>1911</v>
       </c>
@@ -22063,7 +22031,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>2726</v>
       </c>
@@ -22110,7 +22078,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>2049</v>
       </c>
@@ -22157,7 +22125,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>1732</v>
       </c>
@@ -22204,7 +22172,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>1174</v>
       </c>
@@ -22251,7 +22219,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>1194</v>
       </c>
@@ -22298,7 +22266,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>3176</v>
       </c>
@@ -22345,7 +22313,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>642</v>
       </c>
@@ -22392,7 +22360,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>34</v>
       </c>
@@ -22439,7 +22407,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>217</v>
       </c>
@@ -22486,7 +22454,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>1693</v>
       </c>
@@ -22533,7 +22501,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>2333</v>
       </c>
@@ -22580,7 +22548,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>80</v>
       </c>
@@ -22627,7 +22595,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>2847</v>
       </c>
@@ -22674,7 +22642,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>3104</v>
       </c>
@@ -22721,7 +22689,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>980</v>
       </c>
@@ -22768,7 +22736,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>476</v>
       </c>
@@ -22815,7 +22783,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>116</v>
       </c>
@@ -22862,7 +22830,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>2900</v>
       </c>
@@ -22909,7 +22877,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>553</v>
       </c>
@@ -22956,7 +22924,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>2834</v>
       </c>
@@ -23003,7 +22971,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>2314</v>
       </c>
@@ -23050,7 +23018,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>2005</v>
       </c>
@@ -23097,7 +23065,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>2514</v>
       </c>
@@ -23144,7 +23112,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>702</v>
       </c>
@@ -23191,7 +23159,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>42</v>
       </c>
@@ -23238,7 +23206,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>948</v>
       </c>
@@ -23285,7 +23253,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>2926</v>
       </c>
@@ -23332,7 +23300,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>1971</v>
       </c>
@@ -23379,7 +23347,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>748</v>
       </c>
@@ -23426,7 +23394,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>684</v>
       </c>
@@ -23473,7 +23441,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>385</v>
       </c>
@@ -23520,7 +23488,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>3007</v>
       </c>
@@ -23567,7 +23535,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>2612</v>
       </c>
@@ -23614,7 +23582,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>807</v>
       </c>
@@ -23661,7 +23629,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>2087</v>
       </c>
@@ -23708,7 +23676,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>53</v>
       </c>
@@ -23755,7 +23723,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>2944</v>
       </c>
@@ -23802,7 +23770,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>2963</v>
       </c>
@@ -23849,7 +23817,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>2976</v>
       </c>
@@ -23896,7 +23864,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>3051</v>
       </c>
@@ -23943,7 +23911,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>2777</v>
       </c>
@@ -23990,7 +23958,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>3064</v>
       </c>
@@ -24037,7 +24005,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>56</v>
       </c>
@@ -24084,7 +24052,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>763</v>
       </c>
@@ -24131,7 +24099,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>896</v>
       </c>
@@ -24178,7 +24146,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>1409</v>
       </c>
@@ -24225,7 +24193,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>2889</v>
       </c>
@@ -24272,7 +24240,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>2338</v>
       </c>
@@ -24319,7 +24287,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>2905</v>
       </c>
@@ -24366,7 +24334,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>1779</v>
       </c>
@@ -24413,7 +24381,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>2291</v>
       </c>
@@ -24460,7 +24428,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>3192</v>
       </c>
@@ -24507,7 +24475,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>1696</v>
       </c>
@@ -24554,7 +24522,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>1559</v>
       </c>
@@ -24601,7 +24569,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>1405</v>
       </c>
@@ -24648,7 +24616,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>521</v>
       </c>
@@ -24695,7 +24663,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>1625</v>
       </c>
@@ -24742,7 +24710,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>2808</v>
       </c>
@@ -24789,7 +24757,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>764</v>
       </c>
@@ -24836,7 +24804,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>834</v>
       </c>
@@ -24883,7 +24851,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>2793</v>
       </c>
@@ -24930,7 +24898,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>2901</v>
       </c>
@@ -24977,7 +24945,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>2141</v>
       </c>
@@ -25024,7 +24992,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>308</v>
       </c>
@@ -25071,7 +25039,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>705</v>
       </c>
@@ -25118,7 +25086,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>1670</v>
       </c>
@@ -25165,7 +25133,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>1159</v>
       </c>
@@ -25212,7 +25180,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>2592</v>
       </c>
@@ -25259,7 +25227,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>1195</v>
       </c>
@@ -25306,7 +25274,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>1635</v>
       </c>
@@ -25353,7 +25321,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>2432</v>
       </c>
@@ -25400,7 +25368,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>109</v>
       </c>
@@ -25447,7 +25415,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>1509</v>
       </c>
@@ -25494,7 +25462,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>1285</v>
       </c>
@@ -25541,7 +25509,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>500</v>
       </c>
@@ -25588,7 +25556,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>2835</v>
       </c>
@@ -25635,7 +25603,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>1533</v>
       </c>
@@ -25682,7 +25650,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>2445</v>
       </c>
@@ -25729,7 +25697,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>2906</v>
       </c>
@@ -25776,7 +25744,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>1237</v>
       </c>
@@ -25823,7 +25791,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>1572</v>
       </c>
@@ -25870,7 +25838,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>254</v>
       </c>
@@ -25917,7 +25885,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>576</v>
       </c>
@@ -25964,7 +25932,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>563</v>
       </c>
@@ -26011,7 +25979,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>2201</v>
       </c>
@@ -26058,7 +26026,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>1339</v>
       </c>
@@ -26105,7 +26073,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>197</v>
       </c>
@@ -26152,7 +26120,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>2035</v>
       </c>
@@ -26199,7 +26167,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>1739</v>
       </c>
@@ -26246,7 +26214,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>2352</v>
       </c>
@@ -26293,7 +26261,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>691</v>
       </c>
@@ -26340,7 +26308,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>298</v>
       </c>
@@ -26387,7 +26355,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>206</v>
       </c>
@@ -26434,7 +26402,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>1003</v>
       </c>
@@ -26481,7 +26449,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>1653</v>
       </c>
@@ -26528,7 +26496,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>1549</v>
       </c>
@@ -26575,7 +26543,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>1026</v>
       </c>
@@ -26622,7 +26590,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>2523</v>
       </c>
@@ -26669,7 +26637,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>1620</v>
       </c>
@@ -26716,7 +26684,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>2594</v>
       </c>
@@ -26763,7 +26731,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>539</v>
       </c>
@@ -26810,7 +26778,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>687</v>
       </c>
@@ -26857,7 +26825,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>2302</v>
       </c>
@@ -26904,7 +26872,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>694</v>
       </c>
@@ -26951,7 +26919,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>3123</v>
       </c>
@@ -26998,7 +26966,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>2576</v>
       </c>
@@ -27045,7 +27013,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>2349</v>
       </c>
@@ -27092,7 +27060,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>516</v>
       </c>
@@ -27139,7 +27107,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>290</v>
       </c>
@@ -27186,7 +27154,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>1691</v>
       </c>
@@ -27233,7 +27201,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>1689</v>
       </c>
@@ -27280,7 +27248,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>2403</v>
       </c>
@@ -27327,7 +27295,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>3203</v>
       </c>
@@ -27374,7 +27342,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>2113</v>
       </c>
@@ -27421,7 +27389,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>3158</v>
       </c>
@@ -27468,7 +27436,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>348</v>
       </c>
@@ -27515,7 +27483,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>1136</v>
       </c>
@@ -27562,7 +27530,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="449" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>956</v>
       </c>
@@ -27609,7 +27577,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="450" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>2393</v>
       </c>
@@ -27656,7 +27624,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="451" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>3208</v>
       </c>
@@ -27703,7 +27671,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="452" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>2530</v>
       </c>
@@ -27750,7 +27718,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="453" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>305</v>
       </c>
@@ -27797,7 +27765,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="454" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>1383</v>
       </c>
@@ -27844,7 +27812,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="455" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>783</v>
       </c>
@@ -27891,7 +27859,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="456" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>47</v>
       </c>
@@ -27938,7 +27906,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="457" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>3157</v>
       </c>
@@ -27985,7 +27953,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="458" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>1646</v>
       </c>
@@ -28032,7 +28000,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="459" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>1729</v>
       </c>
@@ -28079,7 +28047,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="460" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>2964</v>
       </c>
@@ -28126,7 +28094,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="461" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>675</v>
       </c>
@@ -28173,7 +28141,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="462" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>790</v>
       </c>
@@ -28220,7 +28188,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="463" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>1103</v>
       </c>
@@ -28267,7 +28235,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="464" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>969</v>
       </c>
@@ -28314,7 +28282,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>1634</v>
       </c>
@@ -28361,7 +28329,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="466" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>2279</v>
       </c>
@@ -28408,7 +28376,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>387</v>
       </c>
@@ -28455,7 +28423,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="468" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>586</v>
       </c>
@@ -28502,7 +28470,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>1145</v>
       </c>
@@ -28549,7 +28517,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="470" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>2776</v>
       </c>
@@ -28596,7 +28564,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>2099</v>
       </c>
@@ -28643,7 +28611,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="472" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>470</v>
       </c>
@@ -28690,7 +28658,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="473" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>343</v>
       </c>
@@ -28737,7 +28705,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>2090</v>
       </c>
@@ -28784,7 +28752,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>1401</v>
       </c>
@@ -28831,7 +28799,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="476" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>596</v>
       </c>
@@ -28878,7 +28846,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="477" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>1139</v>
       </c>
@@ -28925,7 +28893,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="478" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>2080</v>
       </c>
@@ -28972,7 +28940,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="479" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>88</v>
       </c>
@@ -29019,7 +28987,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="480" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>2806</v>
       </c>
@@ -29066,7 +29034,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="481" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>3153</v>
       </c>
@@ -29113,7 +29081,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="482" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>2391</v>
       </c>
@@ -29160,7 +29128,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="483" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>84</v>
       </c>
@@ -29207,7 +29175,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="484" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>1987</v>
       </c>
@@ -29254,7 +29222,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="485" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>2790</v>
       </c>
@@ -29301,7 +29269,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="486" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>37</v>
       </c>
@@ -29348,7 +29316,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="487" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>2981</v>
       </c>
@@ -29395,7 +29363,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="488" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>1730</v>
       </c>
@@ -29442,7 +29410,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="489" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>3172</v>
       </c>
@@ -29489,7 +29457,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="490" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>32</v>
       </c>
@@ -29536,7 +29504,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="491" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>2322</v>
       </c>
@@ -29583,7 +29551,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="492" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>1095</v>
       </c>
@@ -29630,7 +29598,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="493" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>1067</v>
       </c>
@@ -29677,7 +29645,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="494" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>2676</v>
       </c>
@@ -29724,7 +29692,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="495" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>549</v>
       </c>
@@ -29771,7 +29739,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="496" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>302</v>
       </c>
@@ -29818,7 +29786,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="497" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>2758</v>
       </c>
@@ -29865,7 +29833,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="498" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>2450</v>
       </c>
@@ -29912,7 +29880,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="499" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>2310</v>
       </c>
@@ -29959,7 +29927,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="500" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>2185</v>
       </c>
@@ -30006,7 +29974,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="501" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>1929</v>
       </c>
@@ -30053,7 +30021,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="502" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>1823</v>
       </c>
@@ -30100,7 +30068,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="503" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>699</v>
       </c>
@@ -30147,7 +30115,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="504" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>1926</v>
       </c>
@@ -30194,7 +30162,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="505" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>2208</v>
       </c>
@@ -30241,7 +30209,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="506" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>3136</v>
       </c>
@@ -30288,7 +30256,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="507" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>1623</v>
       </c>
@@ -30335,7 +30303,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="508" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>277</v>
       </c>
@@ -30382,7 +30350,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="509" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>1522</v>
       </c>
@@ -30429,7 +30397,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="510" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>2582</v>
       </c>
@@ -30476,7 +30444,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="511" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>595</v>
       </c>
@@ -30523,7 +30491,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="512" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>1060</v>
       </c>
@@ -30570,7 +30538,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="513" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>2551</v>
       </c>
@@ -30617,7 +30585,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="514" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>975</v>
       </c>
@@ -30664,7 +30632,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="515" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>300</v>
       </c>
@@ -30711,7 +30679,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="516" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>1883</v>
       </c>
@@ -30758,7 +30726,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="517" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>2973</v>
       </c>
@@ -30805,7 +30773,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="518" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>1831</v>
       </c>
@@ -30852,7 +30820,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="519" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>3019</v>
       </c>
@@ -30899,7 +30867,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="520" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>1598</v>
       </c>
@@ -30946,7 +30914,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="521" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>1898</v>
       </c>
@@ -30993,7 +30961,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="522" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>944</v>
       </c>
@@ -31040,7 +31008,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="523" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>2775</v>
       </c>
@@ -31087,7 +31055,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="524" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>2021</v>
       </c>
@@ -31134,7 +31102,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="525" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>1473</v>
       </c>
@@ -31181,7 +31149,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="526" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>353</v>
       </c>
@@ -31228,7 +31196,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="527" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>400</v>
       </c>
@@ -31275,7 +31243,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="528" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>930</v>
       </c>
@@ -31322,7 +31290,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="529" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>1281</v>
       </c>
@@ -31369,7 +31337,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="530" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>726</v>
       </c>
@@ -31416,7 +31384,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="531" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>2177</v>
       </c>
@@ -31463,7 +31431,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="532" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>1652</v>
       </c>
@@ -31510,7 +31478,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="533" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>65</v>
       </c>
@@ -31557,7 +31525,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="534" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>911</v>
       </c>
@@ -31604,7 +31572,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="535" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>2082</v>
       </c>
@@ -31651,7 +31619,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="536" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>458</v>
       </c>
@@ -31698,7 +31666,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="537" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>1085</v>
       </c>
@@ -31745,7 +31713,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="538" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>1451</v>
       </c>
@@ -31792,7 +31760,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="539" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>1068</v>
       </c>
@@ -31839,7 +31807,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="540" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>241</v>
       </c>
@@ -31886,7 +31854,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="541" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>2654</v>
       </c>
@@ -31933,7 +31901,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="542" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>159</v>
       </c>
@@ -31980,7 +31948,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="543" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>1010</v>
       </c>
@@ -32027,7 +31995,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="544" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>1807</v>
       </c>
@@ -32074,7 +32042,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="545" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>1135</v>
       </c>
@@ -32121,7 +32089,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="546" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>1859</v>
       </c>
@@ -32168,7 +32136,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="547" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>1265</v>
       </c>
@@ -32215,7 +32183,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="548" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>2648</v>
       </c>
@@ -32262,7 +32230,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="549" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>141</v>
       </c>
@@ -32309,7 +32277,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="550" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>1944</v>
       </c>
@@ -32356,7 +32324,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="551" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A551">
         <v>3187</v>
       </c>
@@ -32403,7 +32371,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="552" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A552">
         <v>1436</v>
       </c>
@@ -32450,7 +32418,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="553" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>1384</v>
       </c>
@@ -32497,7 +32465,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="554" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>2446</v>
       </c>
@@ -32544,7 +32512,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="555" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A555">
         <v>2215</v>
       </c>
@@ -32591,7 +32559,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="556" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A556">
         <v>2704</v>
       </c>
@@ -32638,7 +32606,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="557" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A557">
         <v>2470</v>
       </c>
@@ -32685,7 +32653,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="558" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A558">
         <v>1056</v>
       </c>
@@ -32732,7 +32700,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="559" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A559">
         <v>1278</v>
       </c>
@@ -32779,7 +32747,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="560" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A560">
         <v>2987</v>
       </c>
@@ -32826,7 +32794,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="561" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A561">
         <v>417</v>
       </c>
@@ -32873,7 +32841,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="562" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A562">
         <v>670</v>
       </c>
@@ -32920,7 +32888,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="563" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A563">
         <v>1427</v>
       </c>
@@ -32967,7 +32935,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="564" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A564">
         <v>2918</v>
       </c>
@@ -33014,7 +32982,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="565" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A565">
         <v>306</v>
       </c>
@@ -33061,7 +33029,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="566" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A566">
         <v>1714</v>
       </c>
@@ -33108,7 +33076,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="567" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A567">
         <v>1354</v>
       </c>
@@ -33155,7 +33123,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="568" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A568">
         <v>810</v>
       </c>
@@ -33202,7 +33170,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="569" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A569">
         <v>304</v>
       </c>
@@ -33249,7 +33217,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="570" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A570">
         <v>752</v>
       </c>
@@ -33296,7 +33264,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="571" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A571">
         <v>2254</v>
       </c>
@@ -33343,7 +33311,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="572" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A572">
         <v>1654</v>
       </c>
@@ -33390,7 +33358,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="573" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A573">
         <v>2729</v>
       </c>
@@ -33437,7 +33405,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="574" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A574">
         <v>913</v>
       </c>
@@ -33484,7 +33452,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="575" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A575">
         <v>1388</v>
       </c>
@@ -33531,7 +33499,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="576" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A576">
         <v>76</v>
       </c>
@@ -33578,7 +33546,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="577" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A577">
         <v>1172</v>
       </c>
@@ -33625,7 +33593,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="578" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A578">
         <v>2579</v>
       </c>
@@ -33672,7 +33640,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="579" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A579">
         <v>2371</v>
       </c>
@@ -33719,7 +33687,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="580" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A580">
         <v>359</v>
       </c>
@@ -33766,7 +33734,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="581" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A581">
         <v>1423</v>
       </c>
@@ -33813,7 +33781,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="582" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A582">
         <v>2239</v>
       </c>
@@ -33860,7 +33828,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="583" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A583">
         <v>1835</v>
       </c>
@@ -33907,7 +33875,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="584" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A584">
         <v>2097</v>
       </c>
@@ -33954,7 +33922,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="585" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A585">
         <v>1165</v>
       </c>
@@ -34001,7 +33969,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="586" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A586">
         <v>1368</v>
       </c>
@@ -34048,7 +34016,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="587" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A587">
         <v>2331</v>
       </c>
@@ -34095,7 +34063,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="588" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A588">
         <v>3145</v>
       </c>
@@ -34142,7 +34110,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="589" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A589">
         <v>2313</v>
       </c>
@@ -34189,7 +34157,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="590" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A590">
         <v>251</v>
       </c>
@@ -34236,7 +34204,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="591" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A591">
         <v>1956</v>
       </c>
@@ -34283,7 +34251,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="592" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A592">
         <v>1575</v>
       </c>
@@ -34330,7 +34298,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="593" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A593">
         <v>1917</v>
       </c>
@@ -34377,7 +34345,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="594" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A594">
         <v>2447</v>
       </c>
@@ -34424,7 +34392,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="595" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A595">
         <v>1813</v>
       </c>
@@ -34471,7 +34439,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="596" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A596">
         <v>367</v>
       </c>
@@ -34518,7 +34486,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="597" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A597">
         <v>1803</v>
       </c>
@@ -34565,7 +34533,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="598" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A598">
         <v>284</v>
       </c>
@@ -34612,7 +34580,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="599" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A599">
         <v>2603</v>
       </c>
@@ -34659,7 +34627,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="600" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A600">
         <v>653</v>
       </c>
@@ -34706,7 +34674,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="601" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A601">
         <v>1131</v>
       </c>
@@ -34753,7 +34721,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="602" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A602">
         <v>349</v>
       </c>
@@ -34800,7 +34768,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="603" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A603">
         <v>2509</v>
       </c>
@@ -34847,7 +34815,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="604" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A604">
         <v>3139</v>
       </c>
@@ -34894,7 +34862,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="605" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A605">
         <v>480</v>
       </c>
@@ -34941,7 +34909,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="606" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A606">
         <v>1205</v>
       </c>
@@ -34988,7 +34956,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="607" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A607">
         <v>291</v>
       </c>
@@ -35035,7 +35003,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="608" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A608">
         <v>1758</v>
       </c>
@@ -35082,7 +35050,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="609" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A609">
         <v>766</v>
       </c>
@@ -35129,7 +35097,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="610" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A610">
         <v>569</v>
       </c>
@@ -35176,7 +35144,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="611" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A611">
         <v>50</v>
       </c>
@@ -35223,7 +35191,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="612" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A612">
         <v>1875</v>
       </c>
@@ -35270,7 +35238,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="613" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A613">
         <v>3040</v>
       </c>
@@ -35317,7 +35285,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="614" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A614">
         <v>179</v>
       </c>
@@ -35364,7 +35332,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="615" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A615">
         <v>114</v>
       </c>
@@ -35411,7 +35379,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="616" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A616">
         <v>260</v>
       </c>
@@ -35458,7 +35426,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="617" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A617">
         <v>1810</v>
       </c>
@@ -35505,7 +35473,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="618" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A618">
         <v>68</v>
       </c>
@@ -35552,7 +35520,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="619" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A619">
         <v>1148</v>
       </c>
@@ -35599,7 +35567,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="620" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A620">
         <v>2489</v>
       </c>
@@ -35646,7 +35614,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="621" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A621">
         <v>1586</v>
       </c>
@@ -35693,7 +35661,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="622" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A622">
         <v>2339</v>
       </c>
@@ -35740,7 +35708,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="623" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A623">
         <v>1687</v>
       </c>
@@ -35787,7 +35755,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="624" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A624">
         <v>1260</v>
       </c>
@@ -35834,7 +35802,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="625" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A625">
         <v>2240</v>
       </c>
@@ -35881,7 +35849,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="626" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A626">
         <v>1762</v>
       </c>
@@ -35928,7 +35896,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="627" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A627">
         <v>331</v>
       </c>
@@ -35975,7 +35943,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="628" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A628">
         <v>1330</v>
       </c>
@@ -36022,7 +35990,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="629" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A629">
         <v>427</v>
       </c>
@@ -36069,7 +36037,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="630" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A630">
         <v>2929</v>
       </c>
@@ -36116,7 +36084,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="631" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A631">
         <v>2940</v>
       </c>
@@ -36163,7 +36131,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="632" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A632">
         <v>2047</v>
       </c>
@@ -36210,7 +36178,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="633" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A633">
         <v>536</v>
       </c>
@@ -36257,7 +36225,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="634" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A634">
         <v>238</v>
       </c>
@@ -36304,7 +36272,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="635" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A635">
         <v>30</v>
       </c>
@@ -36351,7 +36319,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="636" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A636">
         <v>1151</v>
       </c>
@@ -36398,7 +36366,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="637" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A637">
         <v>1484</v>
       </c>
@@ -36445,7 +36413,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="638" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A638">
         <v>1941</v>
       </c>
@@ -36492,7 +36460,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="639" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A639">
         <v>546</v>
       </c>
@@ -36539,7 +36507,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="640" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A640">
         <v>221</v>
       </c>
@@ -36586,7 +36554,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="641" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A641">
         <v>2882</v>
       </c>
@@ -36633,7 +36601,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="642" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A642">
         <v>2938</v>
       </c>
@@ -36680,7 +36648,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="643" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A643">
         <v>785</v>
       </c>
@@ -36727,7 +36695,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="644" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A644">
         <v>2785</v>
       </c>
@@ -36774,7 +36742,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="645" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A645">
         <v>876</v>
       </c>
@@ -36821,7 +36789,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="646" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A646">
         <v>932</v>
       </c>
@@ -36868,7 +36836,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="647" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A647">
         <v>507</v>
       </c>
@@ -36915,7 +36883,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="648" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A648">
         <v>1672</v>
       </c>
@@ -36962,7 +36930,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="649" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A649">
         <v>917</v>
       </c>
@@ -37009,7 +36977,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="650" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A650">
         <v>2931</v>
       </c>
@@ -37056,7 +37024,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="651" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A651">
         <v>2415</v>
       </c>
@@ -37103,7 +37071,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="652" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A652">
         <v>1805</v>
       </c>
@@ -37150,7 +37118,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="653" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A653">
         <v>495</v>
       </c>
@@ -37197,7 +37165,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="654" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A654">
         <v>2988</v>
       </c>
@@ -37244,7 +37212,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="655" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A655">
         <v>3169</v>
       </c>
@@ -37291,7 +37259,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="656" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A656">
         <v>467</v>
       </c>
@@ -37338,7 +37306,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="657" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A657">
         <v>1551</v>
       </c>
@@ -37385,7 +37353,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="658" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A658">
         <v>2467</v>
       </c>
@@ -37432,7 +37400,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="659" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A659">
         <v>1193</v>
       </c>
@@ -37479,7 +37447,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="660" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A660">
         <v>1016</v>
       </c>
@@ -37526,7 +37494,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="661" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A661">
         <v>313</v>
       </c>
@@ -37573,7 +37541,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="662" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A662">
         <v>117</v>
       </c>
@@ -37620,7 +37588,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="663" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A663">
         <v>2747</v>
       </c>
@@ -37667,7 +37635,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="664" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A664">
         <v>1244</v>
       </c>
@@ -37714,7 +37682,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="665" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A665">
         <v>564</v>
       </c>
@@ -37761,7 +37729,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="666" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A666">
         <v>3129</v>
       </c>
@@ -37808,7 +37776,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="667" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A667">
         <v>800</v>
       </c>
@@ -37855,7 +37823,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="668" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A668">
         <v>1255</v>
       </c>
@@ -37902,7 +37870,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="669" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A669">
         <v>2448</v>
       </c>
@@ -37949,7 +37917,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="670" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A670">
         <v>578</v>
       </c>
@@ -37996,7 +37964,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="671" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A671">
         <v>418</v>
       </c>
@@ -38043,7 +38011,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="672" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A672">
         <v>255</v>
       </c>
@@ -38090,7 +38058,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="673" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A673">
         <v>1918</v>
       </c>
@@ -38137,7 +38105,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="674" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A674">
         <v>2837</v>
       </c>
@@ -38184,7 +38152,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="675" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A675">
         <v>842</v>
       </c>
@@ -38231,7 +38199,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="676" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A676">
         <v>503</v>
       </c>
@@ -38278,7 +38246,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="677" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A677">
         <v>602</v>
       </c>
@@ -38325,7 +38293,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="678" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A678">
         <v>1317</v>
       </c>
@@ -38372,7 +38340,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="679" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A679">
         <v>2071</v>
       </c>
@@ -38419,7 +38387,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="680" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A680">
         <v>2773</v>
       </c>
@@ -38466,7 +38434,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="681" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A681">
         <v>1814</v>
       </c>
@@ -38513,7 +38481,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="682" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A682">
         <v>2600</v>
       </c>
@@ -38560,7 +38528,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="683" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A683">
         <v>426</v>
       </c>
@@ -38607,7 +38575,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="684" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A684">
         <v>2206</v>
       </c>
@@ -38654,7 +38622,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="685" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A685">
         <v>2032</v>
       </c>
@@ -38701,7 +38669,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="686" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A686">
         <v>397</v>
       </c>
@@ -38748,7 +38716,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="687" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A687">
         <v>865</v>
       </c>
@@ -38795,7 +38763,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="688" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A688">
         <v>3027</v>
       </c>
@@ -38842,7 +38810,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="689" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A689">
         <v>31</v>
       </c>
@@ -38889,7 +38857,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="690" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A690">
         <v>1234</v>
       </c>
@@ -38936,7 +38904,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="691" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A691">
         <v>497</v>
       </c>
@@ -38983,7 +38951,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="692" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A692">
         <v>2084</v>
       </c>
@@ -39030,7 +38998,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="693" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A693">
         <v>337</v>
       </c>
@@ -39077,7 +39045,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="694" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A694">
         <v>3182</v>
       </c>
@@ -39124,7 +39092,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="695" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A695">
         <v>1494</v>
       </c>
@@ -39171,7 +39139,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="696" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A696">
         <v>2570</v>
       </c>
@@ -39218,7 +39186,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="697" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A697">
         <v>2205</v>
       </c>
@@ -39265,7 +39233,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="698" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A698">
         <v>314</v>
       </c>
@@ -39312,7 +39280,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="699" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A699">
         <v>1659</v>
       </c>
@@ -39359,7 +39327,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="700" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A700">
         <v>1656</v>
       </c>
@@ -39406,7 +39374,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="701" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A701">
         <v>514</v>
       </c>
@@ -39453,7 +39421,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="702" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A702">
         <v>649</v>
       </c>
@@ -39500,7 +39468,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="703" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A703">
         <v>1769</v>
       </c>
@@ -39547,7 +39515,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="704" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A704">
         <v>33</v>
       </c>
@@ -39594,7 +39562,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="705" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A705">
         <v>195</v>
       </c>
@@ -39641,7 +39609,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="706" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A706">
         <v>742</v>
       </c>
@@ -39688,7 +39656,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="707" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A707">
         <v>2093</v>
       </c>
@@ -39735,7 +39703,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="708" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A708">
         <v>1338</v>
       </c>
@@ -39782,7 +39750,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="709" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A709">
         <v>52</v>
       </c>
@@ -39829,7 +39797,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="710" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A710">
         <v>1651</v>
       </c>
@@ -39876,7 +39844,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="711" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A711">
         <v>452</v>
       </c>
@@ -39923,7 +39891,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="712" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A712">
         <v>1808</v>
       </c>
@@ -39970,7 +39938,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="713" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A713">
         <v>2288</v>
       </c>
@@ -40017,7 +39985,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="714" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A714">
         <v>1855</v>
       </c>
@@ -40064,7 +40032,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="715" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A715">
         <v>3035</v>
       </c>
@@ -40111,7 +40079,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="716" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A716">
         <v>2285</v>
       </c>
@@ -40158,7 +40126,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="717" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A717">
         <v>1203</v>
       </c>
@@ -40205,7 +40173,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="718" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A718">
         <v>2852</v>
       </c>
@@ -40252,7 +40220,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="719" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A719">
         <v>2160</v>
       </c>
@@ -40299,7 +40267,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="720" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A720">
         <v>113</v>
       </c>
@@ -40346,7 +40314,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="721" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A721">
         <v>2609</v>
       </c>
@@ -40393,7 +40361,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="722" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A722">
         <v>2529</v>
       </c>
@@ -40440,7 +40408,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="723" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A723">
         <v>1780</v>
       </c>
@@ -40487,7 +40455,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="724" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A724">
         <v>1840</v>
       </c>
@@ -40534,7 +40502,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="725" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A725">
         <v>2280</v>
       </c>
@@ -40581,7 +40549,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="726" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A726">
         <v>3150</v>
       </c>
@@ -40628,7 +40596,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="727" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A727">
         <v>2490</v>
       </c>
@@ -40675,7 +40643,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="728" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A728">
         <v>3081</v>
       </c>
@@ -40722,7 +40690,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="729" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A729">
         <v>1954</v>
       </c>
@@ -40769,7 +40737,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="730" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A730">
         <v>2560</v>
       </c>
@@ -40816,7 +40784,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="731" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A731">
         <v>1071</v>
       </c>
@@ -40863,7 +40831,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="732" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A732">
         <v>1649</v>
       </c>
@@ -40910,7 +40878,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="733" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A733">
         <v>685</v>
       </c>
@@ -40957,7 +40925,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="734" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A734">
         <v>1069</v>
       </c>
@@ -41004,7 +40972,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="735" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A735">
         <v>1277</v>
       </c>
@@ -41051,7 +41019,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="736" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A736">
         <v>2764</v>
       </c>
@@ -41098,7 +41066,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="737" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A737">
         <v>959</v>
       </c>
@@ -41145,7 +41113,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="738" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A738">
         <v>1746</v>
       </c>
@@ -41192,7 +41160,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="739" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A739">
         <v>2392</v>
       </c>
@@ -41239,7 +41207,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="740" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A740">
         <v>2762</v>
       </c>
@@ -41286,7 +41254,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="741" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A741">
         <v>1699</v>
       </c>
@@ -41333,7 +41301,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="742" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A742">
         <v>220</v>
       </c>
@@ -41380,7 +41348,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="743" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A743">
         <v>285</v>
       </c>
@@ -41427,7 +41395,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="744" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A744">
         <v>2182</v>
       </c>
@@ -41474,7 +41442,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="745" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A745">
         <v>2244</v>
       </c>
@@ -41521,7 +41489,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="746" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A746">
         <v>2357</v>
       </c>
@@ -41568,7 +41536,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="747" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A747">
         <v>971</v>
       </c>
@@ -41615,7 +41583,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="748" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A748">
         <v>2077</v>
       </c>
@@ -41662,7 +41630,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="749" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A749">
         <v>2197</v>
       </c>
@@ -41709,7 +41677,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="750" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A750">
         <v>1294</v>
       </c>
@@ -41756,7 +41724,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="751" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A751">
         <v>1111</v>
       </c>
@@ -41803,7 +41771,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="752" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A752">
         <v>985</v>
       </c>
@@ -41850,7 +41818,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="753" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A753">
         <v>487</v>
       </c>
@@ -41897,7 +41865,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="754" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A754">
         <v>1496</v>
       </c>
@@ -41944,7 +41912,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="755" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A755">
         <v>3054</v>
       </c>
@@ -41991,7 +41959,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="756" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A756">
         <v>501</v>
       </c>
@@ -42038,7 +42006,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="757" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A757">
         <v>632</v>
       </c>
@@ -42085,7 +42053,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="758" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A758">
         <v>1253</v>
       </c>
@@ -42132,7 +42100,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="759" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A759">
         <v>665</v>
       </c>
@@ -42179,7 +42147,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="760" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A760">
         <v>2505</v>
       </c>
@@ -42226,7 +42194,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="761" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A761">
         <v>1519</v>
       </c>
@@ -42273,7 +42241,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="762" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A762">
         <v>1920</v>
       </c>
@@ -42320,7 +42288,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="763" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A763">
         <v>2782</v>
       </c>
@@ -42367,7 +42335,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="764" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A764">
         <v>2089</v>
       </c>
@@ -42414,7 +42382,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="765" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A765">
         <v>2607</v>
       </c>
@@ -42461,7 +42429,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="766" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A766">
         <v>2464</v>
       </c>
@@ -42508,7 +42476,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="767" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A767">
         <v>335</v>
       </c>
@@ -42555,7 +42523,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="768" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A768">
         <v>1973</v>
       </c>
@@ -42602,7 +42570,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="769" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A769">
         <v>1006</v>
       </c>
@@ -42649,7 +42617,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="770" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A770">
         <v>2678</v>
       </c>
@@ -42696,7 +42664,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="771" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A771">
         <v>2103</v>
       </c>
@@ -42743,7 +42711,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="772" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A772">
         <v>627</v>
       </c>
@@ -42790,7 +42758,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="773" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A773">
         <v>2242</v>
       </c>
@@ -42837,7 +42805,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="774" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A774">
         <v>2711</v>
       </c>
@@ -42884,7 +42852,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="775" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A775">
         <v>1210</v>
       </c>
@@ -42931,7 +42899,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="776" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A776">
         <v>692</v>
       </c>
@@ -42978,7 +42946,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="777" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A777">
         <v>864</v>
       </c>
@@ -43025,7 +42993,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="778" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A778">
         <v>1349</v>
       </c>
@@ -43072,7 +43040,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="779" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A779">
         <v>1582</v>
       </c>
@@ -43119,7 +43087,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="780" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A780">
         <v>2862</v>
       </c>
@@ -43166,7 +43134,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="781" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A781">
         <v>23</v>
       </c>
@@ -43213,7 +43181,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="782" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A782">
         <v>526</v>
       </c>
@@ -43260,7 +43228,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="783" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A783">
         <v>2134</v>
       </c>
@@ -43307,7 +43275,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="784" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A784">
         <v>422</v>
       </c>
@@ -43354,7 +43322,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="785" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A785">
         <v>988</v>
       </c>
@@ -43401,7 +43369,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="786" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A786">
         <v>812</v>
       </c>
@@ -43448,7 +43416,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="787" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A787">
         <v>1589</v>
       </c>
@@ -43495,7 +43463,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="788" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A788">
         <v>2504</v>
       </c>
@@ -43542,7 +43510,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="789" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A789">
         <v>1707</v>
       </c>
@@ -43589,7 +43557,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="790" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A790">
         <v>3138</v>
       </c>
@@ -43636,7 +43604,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="791" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A791">
         <v>120</v>
       </c>
@@ -43683,7 +43651,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="792" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A792">
         <v>265</v>
       </c>
@@ -43730,7 +43698,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="793" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A793">
         <v>2499</v>
       </c>
@@ -43777,7 +43745,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="794" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A794">
         <v>127</v>
       </c>
@@ -43824,7 +43792,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="795" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A795">
         <v>1705</v>
       </c>
@@ -43871,7 +43839,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="796" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A796">
         <v>415</v>
       </c>
@@ -43918,7 +43886,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="797" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A797">
         <v>3042</v>
       </c>
@@ -43965,7 +43933,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="798" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A798">
         <v>2098</v>
       </c>
@@ -44012,7 +43980,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="799" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A799">
         <v>1015</v>
       </c>
@@ -44059,7 +44027,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="800" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A800">
         <v>2454</v>
       </c>
@@ -44106,7 +44074,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="801" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A801">
         <v>662</v>
       </c>
@@ -44153,7 +44121,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="802" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A802">
         <v>751</v>
       </c>
@@ -44200,7 +44168,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="803" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A803">
         <v>2336</v>
       </c>
@@ -44247,7 +44215,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="804" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A804">
         <v>1757</v>
       </c>
@@ -44294,7 +44262,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="805" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A805">
         <v>2779</v>
       </c>
@@ -44341,7 +44309,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="806" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A806">
         <v>1698</v>
       </c>
@@ -44388,7 +44356,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="807" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A807">
         <v>550</v>
       </c>
@@ -44435,7 +44403,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="808" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A808">
         <v>746</v>
       </c>
@@ -44482,7 +44450,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="809" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A809">
         <v>906</v>
       </c>
@@ -44529,7 +44497,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="810" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A810">
         <v>3098</v>
       </c>
@@ -44576,7 +44544,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="811" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A811">
         <v>1052</v>
       </c>
@@ -44623,7 +44591,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="812" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A812">
         <v>1073</v>
       </c>
@@ -44670,7 +44638,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="813" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A813">
         <v>1327</v>
       </c>
@@ -44717,7 +44685,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="814" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A814">
         <v>1849</v>
       </c>
@@ -44764,7 +44732,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="815" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A815">
         <v>1550</v>
       </c>
@@ -44811,7 +44779,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="816" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A816">
         <v>2139</v>
       </c>
@@ -44858,7 +44826,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="817" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A817">
         <v>2442</v>
       </c>
@@ -44905,7 +44873,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="818" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A818">
         <v>108</v>
       </c>
@@ -44952,7 +44920,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="819" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A819">
         <v>322</v>
       </c>
@@ -44999,7 +44967,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="820" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A820">
         <v>2060</v>
       </c>
@@ -45046,7 +45014,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="821" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A821">
         <v>589</v>
       </c>
@@ -45093,7 +45061,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="822" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A822">
         <v>198</v>
       </c>
@@ -45140,7 +45108,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="823" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A823">
         <v>1485</v>
       </c>
@@ -45187,7 +45155,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="824" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A824">
         <v>2136</v>
       </c>
@@ -45234,7 +45202,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="825" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A825">
         <v>3200</v>
       </c>
@@ -45281,7 +45249,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="826" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A826">
         <v>2693</v>
       </c>
@@ -45328,7 +45296,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="827" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A827">
         <v>1335</v>
       </c>
@@ -45375,7 +45343,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="828" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A828">
         <v>1171</v>
       </c>
@@ -45422,7 +45390,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="829" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A829">
         <v>1935</v>
       </c>
@@ -45469,7 +45437,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="830" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A830">
         <v>1097</v>
       </c>
@@ -45516,7 +45484,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="831" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A831">
         <v>1307</v>
       </c>
@@ -45563,7 +45531,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="832" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A832">
         <v>1300</v>
       </c>
@@ -45610,7 +45578,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="833" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A833">
         <v>2587</v>
       </c>
@@ -45657,7 +45625,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="834" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A834">
         <v>964</v>
       </c>
@@ -45704,7 +45672,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="835" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A835">
         <v>1093</v>
       </c>
@@ -45751,7 +45719,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="836" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A836">
         <v>1199</v>
       </c>
@@ -45798,7 +45766,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="837" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A837">
         <v>2259</v>
       </c>
@@ -45845,7 +45813,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="838" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A838">
         <v>1169</v>
       </c>
@@ -45892,7 +45860,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="839" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A839">
         <v>2575</v>
       </c>
@@ -45939,7 +45907,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="840" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A840">
         <v>1889</v>
       </c>
@@ -45986,7 +45954,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="841" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A841">
         <v>2267</v>
       </c>
@@ -46033,7 +46001,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="842" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A842">
         <v>78</v>
       </c>
@@ -46080,7 +46048,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="843" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A843">
         <v>55</v>
       </c>
@@ -46127,7 +46095,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="844" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A844">
         <v>725</v>
       </c>
@@ -46174,7 +46142,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="845" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A845">
         <v>1927</v>
       </c>
@@ -46221,7 +46189,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="846" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A846">
         <v>398</v>
       </c>
@@ -46268,7 +46236,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="847" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A847">
         <v>2554</v>
       </c>
@@ -46315,7 +46283,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="848" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A848">
         <v>2293</v>
       </c>
@@ -46362,7 +46330,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="849" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A849">
         <v>2978</v>
       </c>
@@ -46409,7 +46377,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="850" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A850">
         <v>1443</v>
       </c>
@@ -46456,7 +46424,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="851" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A851">
         <v>342</v>
       </c>
@@ -46503,7 +46471,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="852" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A852">
         <v>1719</v>
       </c>
@@ -46550,7 +46518,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="853" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A853">
         <v>2004</v>
       </c>
@@ -46597,7 +46565,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="854" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A854">
         <v>784</v>
       </c>
@@ -46644,7 +46612,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="855" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A855">
         <v>3061</v>
       </c>
@@ -46691,7 +46659,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="856" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A856">
         <v>559</v>
       </c>
@@ -46738,7 +46706,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="857" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A857">
         <v>978</v>
       </c>
@@ -46785,7 +46753,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="858" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A858">
         <v>1387</v>
       </c>
@@ -46832,7 +46800,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="859" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A859">
         <v>499</v>
       </c>
@@ -46879,7 +46847,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="860" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A860">
         <v>1439</v>
       </c>
@@ -46926,7 +46894,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="861" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A861">
         <v>3130</v>
       </c>
@@ -46973,7 +46941,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="862" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A862">
         <v>1526</v>
       </c>
@@ -47020,7 +46988,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="863" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A863">
         <v>1229</v>
       </c>
@@ -47067,7 +47035,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="864" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A864">
         <v>780</v>
       </c>
@@ -47114,7 +47082,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="865" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A865">
         <v>936</v>
       </c>
@@ -47161,7 +47129,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="866" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A866">
         <v>2820</v>
       </c>
@@ -47208,7 +47176,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="867" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A867">
         <v>3118</v>
       </c>
@@ -47255,7 +47223,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="868" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A868">
         <v>750</v>
       </c>
@@ -47302,7 +47270,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="869" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A869">
         <v>2948</v>
       </c>
@@ -47349,7 +47317,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="870" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A870">
         <v>1818</v>
       </c>
@@ -47396,7 +47364,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="871" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A871">
         <v>1715</v>
       </c>
@@ -47443,7 +47411,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="872" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A872">
         <v>2667</v>
       </c>
@@ -47490,7 +47458,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="873" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A873">
         <v>2818</v>
       </c>
@@ -47537,7 +47505,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="874" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A874">
         <v>175</v>
       </c>
@@ -47584,7 +47552,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="875" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A875">
         <v>2701</v>
       </c>
@@ -47631,7 +47599,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="876" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A876">
         <v>338</v>
       </c>
@@ -47678,7 +47646,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="877" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A877">
         <v>1372</v>
       </c>
@@ -47725,7 +47693,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="878" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A878">
         <v>399</v>
       </c>
@@ -47772,7 +47740,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="879" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A879">
         <v>2734</v>
       </c>
@@ -47819,7 +47787,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="880" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A880">
         <v>2663</v>
       </c>
@@ -47866,7 +47834,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="881" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A881">
         <v>2951</v>
       </c>
@@ -47913,7 +47881,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="882" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A882">
         <v>733</v>
       </c>
@@ -47960,7 +47928,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="883" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A883">
         <v>374</v>
       </c>
@@ -48007,7 +47975,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="884" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A884">
         <v>1949</v>
       </c>
@@ -48054,7 +48022,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="885" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A885">
         <v>48</v>
       </c>
@@ -48101,7 +48069,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="886" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A886">
         <v>3020</v>
       </c>
@@ -48148,7 +48116,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="887" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A887">
         <v>749</v>
       </c>
@@ -48195,7 +48163,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="888" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A888">
         <v>1336</v>
       </c>
@@ -48242,7 +48210,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="889" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A889">
         <v>2390</v>
       </c>
@@ -48289,7 +48257,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="890" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A890">
         <v>851</v>
       </c>
@@ -48336,7 +48304,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="891" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A891">
         <v>2394</v>
       </c>
@@ -48383,7 +48351,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="892" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A892">
         <v>1062</v>
       </c>
@@ -48430,7 +48398,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="893" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A893">
         <v>1024</v>
       </c>
@@ -48477,7 +48445,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="894" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A894">
         <v>1261</v>
       </c>
@@ -48524,7 +48492,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="895" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A895">
         <v>2029</v>
       </c>
@@ -48571,7 +48539,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="896" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A896">
         <v>267</v>
       </c>
@@ -48618,7 +48586,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="897" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A897">
         <v>3140</v>
       </c>
@@ -48665,7 +48633,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="898" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A898">
         <v>2599</v>
       </c>
@@ -48712,7 +48680,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="899" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A899">
         <v>1505</v>
       </c>
@@ -48759,7 +48727,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="900" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A900">
         <v>2736</v>
       </c>
@@ -48806,7 +48774,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="901" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A901">
         <v>2444</v>
       </c>
@@ -48853,7 +48821,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="902" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A902">
         <v>212</v>
       </c>
@@ -48900,7 +48868,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="903" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A903">
         <v>1226</v>
       </c>
@@ -48947,7 +48915,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="904" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A904">
         <v>2381</v>
       </c>
@@ -48994,7 +48962,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="905" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A905">
         <v>2510</v>
       </c>
@@ -49041,7 +49009,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="906" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A906">
         <v>182</v>
       </c>
@@ -49088,7 +49056,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="907" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A907">
         <v>1340</v>
       </c>
@@ -49135,7 +49103,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="908" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A908">
         <v>663</v>
       </c>
@@ -49182,7 +49150,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="909" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A909">
         <v>167</v>
       </c>
@@ -49229,7 +49197,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="910" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A910">
         <v>3143</v>
       </c>
@@ -49276,7 +49244,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="911" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A911">
         <v>1571</v>
       </c>
@@ -49323,7 +49291,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="912" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A912">
         <v>1216</v>
       </c>
@@ -49370,7 +49338,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="913" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A913">
         <v>237</v>
       </c>
@@ -49417,7 +49385,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="914" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A914">
         <v>1524</v>
       </c>
@@ -49464,7 +49432,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="915" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A915">
         <v>218</v>
       </c>
@@ -49511,7 +49479,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="916" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A916">
         <v>2508</v>
       </c>
@@ -49558,7 +49526,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="917" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A917">
         <v>1873</v>
       </c>
@@ -49605,7 +49573,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="918" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A918">
         <v>1378</v>
       </c>
@@ -49652,7 +49620,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="919" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A919">
         <v>2488</v>
       </c>
@@ -49699,7 +49667,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="920" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A920">
         <v>2924</v>
       </c>
@@ -49746,7 +49714,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="921" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A921">
         <v>316</v>
       </c>
@@ -49793,7 +49761,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="922" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A922">
         <v>531</v>
       </c>
@@ -49840,7 +49808,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="923" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A923">
         <v>435</v>
       </c>
@@ -49887,7 +49855,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="924" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A924">
         <v>1381</v>
       </c>
@@ -49934,7 +49902,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="925" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A925">
         <v>2606</v>
       </c>
@@ -49981,7 +49949,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="926" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A926">
         <v>2402</v>
       </c>
@@ -50028,7 +49996,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="927" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A927">
         <v>761</v>
       </c>
@@ -50075,7 +50043,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="928" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A928">
         <v>1447</v>
       </c>
@@ -50122,7 +50090,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="929" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A929">
         <v>1724</v>
       </c>
@@ -50169,7 +50137,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="930" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A930">
         <v>1050</v>
       </c>
@@ -50216,7 +50184,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="931" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A931">
         <v>443</v>
       </c>
@@ -50263,7 +50231,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="932" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A932">
         <v>974</v>
       </c>
@@ -50310,7 +50278,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="933" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A933">
         <v>534</v>
       </c>
@@ -50357,7 +50325,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="934" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A934">
         <v>289</v>
       </c>
@@ -50404,7 +50372,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="935" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A935">
         <v>2046</v>
       </c>
@@ -50451,7 +50419,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="936" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A936">
         <v>2614</v>
       </c>
@@ -50498,7 +50466,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="937" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A937">
         <v>2652</v>
       </c>
@@ -50545,7 +50513,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="938" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A938">
         <v>1303</v>
       </c>
@@ -50592,7 +50560,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="939" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A939">
         <v>2638</v>
       </c>
@@ -50639,7 +50607,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="940" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A940">
         <v>2865</v>
       </c>
@@ -50686,7 +50654,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="941" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A941">
         <v>640</v>
       </c>
@@ -50733,7 +50701,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="942" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A942">
         <v>910</v>
       </c>
@@ -50780,7 +50748,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="943" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A943">
         <v>333</v>
       </c>
@@ -50827,7 +50795,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="944" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A944">
         <v>1722</v>
       </c>
@@ -50874,7 +50842,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="945" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A945">
         <v>1437</v>
       </c>
@@ -50921,7 +50889,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="946" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A946">
         <v>806</v>
       </c>
@@ -50968,7 +50936,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="947" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A947">
         <v>1563</v>
       </c>
@@ -51015,7 +50983,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="948" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A948">
         <v>878</v>
       </c>
@@ -51062,7 +51030,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="949" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A949">
         <v>2968</v>
       </c>
@@ -51109,7 +51077,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="950" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A950">
         <v>1876</v>
       </c>
@@ -51156,7 +51124,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="951" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A951">
         <v>2686</v>
       </c>
@@ -51203,7 +51171,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="952" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A952">
         <v>513</v>
       </c>
@@ -51250,7 +51218,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="953" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A953">
         <v>3165</v>
       </c>
@@ -51297,7 +51265,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="954" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A954">
         <v>1847</v>
       </c>
@@ -51344,7 +51312,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="955" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A955">
         <v>1994</v>
       </c>
@@ -51391,7 +51359,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="956" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A956">
         <v>201</v>
       </c>
@@ -51438,7 +51406,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="957" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A957">
         <v>960</v>
       </c>
@@ -51485,7 +51453,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="958" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A958">
         <v>1475</v>
       </c>
@@ -51532,7 +51500,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="959" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A959">
         <v>3149</v>
       </c>
@@ -51579,7 +51547,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="960" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A960">
         <v>877</v>
       </c>
@@ -51626,7 +51594,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="961" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A961">
         <v>2122</v>
       </c>
@@ -51673,7 +51641,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="962" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A962">
         <v>923</v>
       </c>
@@ -51720,7 +51688,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="963" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A963">
         <v>1809</v>
       </c>
@@ -51767,7 +51735,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="964" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A964">
         <v>3209</v>
       </c>
@@ -51814,7 +51782,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="965" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A965">
         <v>1951</v>
       </c>
@@ -51861,7 +51829,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="966" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A966">
         <v>2566</v>
       </c>
@@ -51908,7 +51876,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="967" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A967">
         <v>2925</v>
       </c>
@@ -51955,7 +51923,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="968" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A968">
         <v>3087</v>
       </c>
@@ -52002,7 +51970,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="969" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A969">
         <v>2040</v>
       </c>
@@ -52049,7 +52017,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="970" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A970">
         <v>1755</v>
       </c>
@@ -52096,7 +52064,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="971" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A971">
         <v>965</v>
       </c>
@@ -52143,7 +52111,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="972" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A972">
         <v>2019</v>
       </c>
@@ -52190,7 +52158,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="973" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A973">
         <v>843</v>
       </c>
@@ -52237,7 +52205,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="974" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A974">
         <v>1593</v>
       </c>
@@ -52284,7 +52252,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="975" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A975">
         <v>2494</v>
       </c>
@@ -52331,7 +52299,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="976" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A976">
         <v>2250</v>
       </c>
@@ -52378,7 +52346,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="977" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A977">
         <v>1498</v>
       </c>
@@ -52425,7 +52393,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="978" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A978">
         <v>356</v>
       </c>
@@ -52472,7 +52440,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="979" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A979">
         <v>1432</v>
       </c>
@@ -52519,7 +52487,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="980" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A980">
         <v>25</v>
       </c>
@@ -52566,7 +52534,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="981" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A981">
         <v>488</v>
       </c>
@@ -52613,7 +52581,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="982" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A982">
         <v>423</v>
       </c>
@@ -52660,7 +52628,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="983" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A983">
         <v>2028</v>
       </c>
@@ -52707,7 +52675,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="984" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A984">
         <v>1521</v>
       </c>
@@ -52754,7 +52722,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="985" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A985">
         <v>2780</v>
       </c>
@@ -52801,7 +52769,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="986" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A986">
         <v>2316</v>
       </c>
@@ -52848,7 +52816,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="987" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A987">
         <v>2247</v>
       </c>
@@ -52895,7 +52863,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="988" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A988">
         <v>2408</v>
       </c>
@@ -52942,7 +52910,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="989" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A989">
         <v>3184</v>
       </c>
@@ -52989,7 +52957,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="990" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A990">
         <v>1680</v>
       </c>
@@ -53036,7 +53004,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="991" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A991">
         <v>2585</v>
       </c>
@@ -53083,7 +53051,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="992" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A992">
         <v>1561</v>
       </c>
@@ -53130,7 +53098,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="993" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A993">
         <v>2632</v>
       </c>
@@ -53177,7 +53145,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="994" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A994">
         <v>439</v>
       </c>
@@ -53224,7 +53192,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="995" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A995">
         <v>461</v>
       </c>
@@ -53271,7 +53239,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="996" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A996">
         <v>1419</v>
       </c>
@@ -53318,7 +53286,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="997" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A997">
         <v>2986</v>
       </c>
@@ -53365,7 +53333,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="998" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A998">
         <v>2031</v>
       </c>
@@ -53412,7 +53380,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="999" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A999">
         <v>1627</v>
       </c>
@@ -53459,7 +53427,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="1000" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1000">
         <v>2175</v>
       </c>
@@ -53506,7 +53474,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="1001" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1001" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1001">
         <v>1788</v>
       </c>
@@ -53554,6 +53522,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O1001" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>